--- a/Team-Data/2012-13/11-27-2012-13.xlsx
+++ b/Team-Data/2012-13/11-27-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>4</v>
@@ -765,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -789,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -801,22 +868,22 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="n">
         <v>10</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>6</v>
@@ -962,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -998,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>4.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>5</v>
@@ -1135,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
@@ -1144,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
@@ -1153,13 +1220,13 @@
         <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>5</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1180,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
@@ -1341,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
         <v>2</v>
@@ -1362,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
@@ -1490,10 +1557,10 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>4</v>
@@ -1517,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>6</v>
@@ -1529,16 +1596,16 @@
         <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="J7" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="O7" t="n">
         <v>16.4</v>
@@ -1615,52 +1682,52 @@
         <v>23.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R7" t="n">
         <v>13.5</v>
       </c>
       <c r="S7" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="U7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y7" t="n">
         <v>8.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.7</v>
+        <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1675,40 +1742,40 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>27</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="n">
         <v>8</v>
@@ -1723,13 +1790,13 @@
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1776,79 +1843,79 @@
         <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K8" t="n">
         <v>0.455</v>
       </c>
       <c r="L8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="O8" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.766</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>8.9</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z8" t="n">
         <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>8</v>
@@ -1857,46 +1924,46 @@
         <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
@@ -2030,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>4</v>
@@ -2039,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2054,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2069,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
@@ -2081,16 +2148,16 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2297,7 @@
         <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2239,7 +2306,7 @@
         <v>11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>19</v>
@@ -2263,13 +2330,13 @@
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>4</v>
@@ -2409,19 +2476,19 @@
         <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
         <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
         <v>13</v>
@@ -2430,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
@@ -2445,10 +2512,10 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
         <v>8</v>
@@ -2457,7 +2524,7 @@
         <v>16</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H12" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
       <c r="J12" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="L12" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="O12" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.785</v>
+        <v>0.787</v>
       </c>
       <c r="R12" t="n">
         <v>12.6</v>
@@ -2537,67 +2604,67 @@
         <v>45.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2612,31 +2679,31 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW12" t="n">
         <v>12</v>
       </c>
       <c r="AX12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY12" t="n">
         <v>26</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA12" t="n">
         <v>25</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>27</v>
-      </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2668,103 +2735,103 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.467</v>
+        <v>0.429</v>
       </c>
       <c r="H13" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I13" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="J13" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.41</v>
+        <v>0.413</v>
       </c>
       <c r="L13" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>19.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.326</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.719</v>
+        <v>0.726</v>
       </c>
       <c r="R13" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="U13" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V13" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>90.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>17</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2782,13 +2849,13 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2800,22 +2867,22 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>3.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2955,13 +3022,13 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN14" t="n">
         <v>14</v>
       </c>
-      <c r="AN14" t="n">
-        <v>12</v>
-      </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,13 +3040,13 @@
         <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV14" t="n">
         <v>28</v>
@@ -2994,16 +3061,16 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC14" t="n">
         <v>8</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -3032,115 +3099,115 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="J15" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.463</v>
       </c>
       <c r="L15" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.361</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P15" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.668</v>
+        <v>0.681</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>45.9</v>
+        <v>45.2</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,40 +3219,40 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT15" t="n">
         <v>5</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
@@ -3334,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>27</v>
@@ -3343,7 +3410,7 @@
         <v>22</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3355,16 +3422,16 @@
         <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>6</v>
       </c>
       <c r="BB16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
@@ -3507,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3522,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3540,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3683,7 +3750,7 @@
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
@@ -3701,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
         <v>14</v>
@@ -3725,10 +3792,10 @@
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="J19" t="n">
-        <v>79.3</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="N19" t="n">
         <v>0.277</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="P19" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.727</v>
       </c>
       <c r="R19" t="n">
         <v>12.8</v>
       </c>
       <c r="S19" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="T19" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="U19" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3826,34 +3893,34 @@
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>24</v>
@@ -3865,34 +3932,34 @@
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU19" t="n">
         <v>22</v>
       </c>
-      <c r="AR19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>20</v>
-      </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
         <v>14</v>
@@ -3904,16 +3971,16 @@
         <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4035,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>25</v>
@@ -4047,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN20" t="n">
         <v>3</v>
@@ -4071,31 +4138,31 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>5</v>
@@ -4241,13 +4308,13 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>25</v>
@@ -4268,13 +4335,13 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4396,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4408,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
@@ -4581,7 +4648,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>20</v>
@@ -4614,10 +4681,10 @@
         <v>6</v>
       </c>
       <c r="AT23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU23" t="n">
         <v>9</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
@@ -4626,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>12</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4670,136 +4737,136 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I24" t="n">
         <v>35.2</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.425</v>
+        <v>0.422</v>
       </c>
       <c r="L24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M24" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O24" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5</v>
+        <v>18.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R24" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>21.4</v>
       </c>
       <c r="V24" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.7</v>
+        <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
         <v>25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN24" t="n">
         <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS24" t="n">
         <v>10</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12</v>
       </c>
       <c r="AT24" t="n">
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,10 +4878,10 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -4852,97 +4919,97 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.467</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J25" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K25" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
         <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="P25" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.739</v>
+        <v>0.747</v>
       </c>
       <c r="R25" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="S25" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U25" t="n">
         <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z25" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF25" t="n">
         <v>21</v>
       </c>
-      <c r="AA25" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>19</v>
-      </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4960,7 +5027,7 @@
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,13 +5036,13 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT25" t="n">
         <v>15</v>
@@ -4987,22 +5054,22 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF26" t="n">
         <v>21</v>
       </c>
-      <c r="AF26" t="n">
-        <v>19</v>
-      </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5136,10 +5203,10 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
@@ -5151,7 +5218,7 @@
         <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR26" t="n">
         <v>15</v>
@@ -5166,10 +5233,10 @@
         <v>26</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>22</v>
@@ -5181,13 +5248,13 @@
         <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -5216,19 +5283,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>0.286</v>
+        <v>0.308</v>
       </c>
       <c r="H27" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I27" t="n">
         <v>37.2</v>
@@ -5240,73 +5307,73 @@
         <v>0.442</v>
       </c>
       <c r="L27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M27" t="n">
         <v>17.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O27" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="P27" t="n">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.727</v>
+        <v>0.732</v>
       </c>
       <c r="R27" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
         <v>27.9</v>
       </c>
       <c r="T27" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="U27" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>9</v>
@@ -5327,13 +5394,13 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR27" t="n">
         <v>16</v>
@@ -5342,25 +5409,25 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>3</v>
@@ -5506,7 +5573,7 @@
         <v>12</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>20</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5542,13 +5609,13 @@
         <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA28" t="n">
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="J29" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.423</v>
+        <v>0.419</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>17.7</v>
+        <v>18.4</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.769</v>
@@ -5625,46 +5692,46 @@
         <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="AD29" t="n">
         <v>6</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
         <v>28</v>
@@ -5673,28 +5740,28 @@
         <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>5</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP29" t="n">
         <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
@@ -5703,37 +5770,37 @@
         <v>17</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY29" t="n">
         <v>24</v>
       </c>
-      <c r="AY29" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,28 +5919,28 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
@@ -5885,22 +5952,22 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT30" t="n">
         <v>6</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
@@ -6055,10 +6122,10 @@
         <v>27</v>
       </c>
       <c r="AO31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP31" t="n">
         <v>26</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>16</v>
@@ -6067,19 +6134,19 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
       </c>
       <c r="AU31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV31" t="n">
         <v>23</v>
       </c>
-      <c r="AV31" t="n">
-        <v>22</v>
-      </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-27-2012-13</t>
+          <t>2012-11-27</t>
         </is>
       </c>
     </row>
